--- a/data/cwe_scope_mitigation.xlsx
+++ b/data/cwe_scope_mitigation.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -752,6 +752,9 @@
       <c r="K5">
         <v>1</v>
       </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -772,8 +775,13 @@
       <c r="B7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
       <c r="L7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="10">
         <v>1</v>
       </c>
     </row>
@@ -921,6 +929,9 @@
       <c r="M13" s="10">
         <v>1</v>
       </c>
+      <c r="O13" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -998,6 +1009,12 @@
       <c r="H16" s="10">
         <v>1</v>
       </c>
+      <c r="N16" s="10">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1019,6 +1036,9 @@
       <c r="M17" s="10">
         <v>1</v>
       </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
       <c r="O17" s="10">
         <v>1</v>
       </c>
@@ -1036,11 +1056,16 @@
       <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
       <c r="I18" s="10">
         <v>1</v>
       </c>
       <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="L18" s="12">
         <v>1</v>
       </c>
       <c r="M18" s="10">
@@ -1093,8 +1118,16 @@
       <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="L21" s="10">
+        <v>1</v>
+      </c>
       <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <v>1</v>
       </c>
     </row>
@@ -1172,6 +1205,9 @@
       <c r="K25" s="10">
         <v>1</v>
       </c>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1200,6 +1236,9 @@
         <v>1</v>
       </c>
       <c r="M27" s="10">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
         <v>1</v>
       </c>
     </row>
